--- a/data/income_statement/2digits/size/55_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/55_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>55-Accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>55-Accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,665 +841,750 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2519624.10174</v>
+        <v>3826585.53256</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3027815.7325</v>
+        <v>4421049.94898</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4133260.12054</v>
+        <v>5721976.198150001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4197427.26394</v>
+        <v>5996435.26517</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5428931.91289</v>
+        <v>7277497.601530001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5780326.44539</v>
+        <v>8001553.357370001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6136515.230689999</v>
+        <v>8597073.925419999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4972968.86338</v>
+        <v>7777451.96106</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6710434.245080001</v>
+        <v>10853850.92709</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14784441.43518</v>
+        <v>18264168.58339</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>17015631.44397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>18784149.91924</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10454694.334</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2285207.50234</v>
+        <v>3501802.78733</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2768068.7431</v>
+        <v>4107580.93647</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3841952.666309999</v>
+        <v>5289330.9485</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3925668.94123</v>
+        <v>5604620.92748</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5001843.24734</v>
+        <v>6703455.957500001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5425895.319530001</v>
+        <v>7500634.25791</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5773377.88595</v>
+        <v>8116976.80114</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4712947.624869999</v>
+        <v>7332492.56885</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6350362.159990001</v>
+        <v>10252530.63076</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14028014.06305</v>
+        <v>15636207.80155</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15910190.79048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17773455.87557</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9802564.32</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>154114.34319</v>
+        <v>221244.4379</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>164015.44659</v>
+        <v>217153.59762</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>180191.87594</v>
+        <v>302142.76751</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>150819.71931</v>
+        <v>231450.27971</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>284135.23894</v>
+        <v>384667.74614</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>196053.01035</v>
+        <v>302520.37579</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>160053.31864</v>
+        <v>262929.34464</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>60366.73125</v>
+        <v>148580.76361</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>89631.49699000001</v>
+        <v>210718.44118</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>312816.03721</v>
+        <v>397292.07407</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>401313.86032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>417368.45432</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>254843.298</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>80302.25620999999</v>
+        <v>103538.30733</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>95731.54280999998</v>
+        <v>96315.41489</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>111115.57829</v>
+        <v>130502.48214</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>120938.6034</v>
+        <v>160364.05798</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>142953.42661</v>
+        <v>189373.89789</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>158378.11551</v>
+        <v>198398.72367</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>203084.0261</v>
+        <v>217167.77964</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>199654.50726</v>
+        <v>296378.6286</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>270440.5881000001</v>
+        <v>390601.85515</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>443611.33492</v>
+        <v>2230668.70777</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>704126.79317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>593325.58935</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>397286.716</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>23742.01437</v>
+        <v>42251.13074</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>24181.38623</v>
+        <v>41621.55818</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>33898.88219</v>
+        <v>52175.4723</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>46077.57505</v>
+        <v>69295.47438000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>48525.66848000001</v>
+        <v>74948.803</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>46126.91161000001</v>
+        <v>92206.40005000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>56298.58883</v>
+        <v>110811.63225</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>51134.08373000001</v>
+        <v>131355.69541</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>112149.35633</v>
+        <v>195781.11156</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>213628.59829</v>
+        <v>2074021.01557</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>247444.26277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>284228.52691</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>308421.165</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>14398.47676</v>
+        <v>25057.37185</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>14262.15647</v>
+        <v>23912.71265</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21429.4762</v>
+        <v>28985.66485</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>30313.8534</v>
+        <v>44248.09804</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>30869.32435</v>
+        <v>46384.44596</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>30450.75482</v>
+        <v>63295.81783</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>30875.08006</v>
+        <v>72934.33232</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>29898.16672</v>
+        <v>81797.71001000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>68898.08422</v>
+        <v>111629.8136</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>119176.93915</v>
+        <v>136495.51006</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>160940.9423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>160846.08877</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>214449.993</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
+      </c>
+      <c r="C11" s="48" t="n">
+        <v>11354.42174</v>
+      </c>
+      <c r="D11" s="48" t="n">
+        <v>12907.55613</v>
+      </c>
+      <c r="E11" s="48" t="n">
+        <v>21145.08363</v>
+      </c>
+      <c r="F11" s="48" t="n">
+        <v>21448.3665</v>
+      </c>
+      <c r="G11" s="48" t="n">
+        <v>23787.32588</v>
+      </c>
+      <c r="H11" s="48" t="n">
+        <v>23372.84053</v>
+      </c>
+      <c r="I11" s="48" t="n">
+        <v>31913.96415</v>
+      </c>
+      <c r="J11" s="48" t="n">
+        <v>41843.21333000001</v>
+      </c>
+      <c r="K11" s="48" t="n">
+        <v>73367.72569999998</v>
+      </c>
+      <c r="L11" s="48" t="n">
+        <v>1913261.30589</v>
+      </c>
+      <c r="M11" s="48" t="n">
+        <v>103764.50805</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>73624.677</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
+      </c>
+      <c r="C12" s="48" t="n">
+        <v>5839.337149999999</v>
+      </c>
+      <c r="D12" s="48" t="n">
+        <v>4801.289400000001</v>
+      </c>
+      <c r="E12" s="48" t="n">
+        <v>2044.72382</v>
+      </c>
+      <c r="F12" s="48" t="n">
+        <v>3599.00984</v>
+      </c>
+      <c r="G12" s="48" t="n">
+        <v>4777.03116</v>
+      </c>
+      <c r="H12" s="48" t="n">
+        <v>5537.741690000001</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>5963.33578</v>
+      </c>
+      <c r="J12" s="48" t="n">
+        <v>7714.772069999999</v>
+      </c>
+      <c r="K12" s="48" t="n">
+        <v>10783.57226</v>
+      </c>
+      <c r="L12" s="48" t="n">
+        <v>24264.19962</v>
+      </c>
+      <c r="M12" s="48" t="n">
+        <v>19617.93009</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>20346.495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
+      </c>
+      <c r="C13" s="46" t="n">
+        <v>3784334.40182</v>
+      </c>
+      <c r="D13" s="47" t="n">
+        <v>4379428.3908</v>
+      </c>
+      <c r="E13" s="47" t="n">
+        <v>5669800.725849999</v>
+      </c>
+      <c r="F13" s="47" t="n">
+        <v>5927139.79079</v>
+      </c>
+      <c r="G13" s="47" t="n">
+        <v>7202548.798529999</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <v>7909346.95732</v>
+      </c>
+      <c r="I13" s="47" t="n">
+        <v>8486262.293169999</v>
+      </c>
+      <c r="J13" s="47" t="n">
+        <v>7646096.265649999</v>
+      </c>
+      <c r="K13" s="47" t="n">
+        <v>10658069.81553</v>
+      </c>
+      <c r="L13" s="47" t="n">
+        <v>16190147.56782</v>
+      </c>
+      <c r="M13" s="47" t="n">
+        <v>18499921.39233</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10146273.169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
+      </c>
+      <c r="C14" s="46" t="n">
+        <v>2525607.65392</v>
+      </c>
+      <c r="D14" s="47" t="n">
+        <v>2999102.74991</v>
+      </c>
+      <c r="E14" s="47" t="n">
+        <v>3695672.36428</v>
+      </c>
+      <c r="F14" s="47" t="n">
+        <v>4130905.3672</v>
+      </c>
+      <c r="G14" s="47" t="n">
+        <v>4961619.689</v>
+      </c>
+      <c r="H14" s="47" t="n">
+        <v>5442271.73446</v>
+      </c>
+      <c r="I14" s="47" t="n">
+        <v>6095054.11572</v>
+      </c>
+      <c r="J14" s="47" t="n">
+        <v>6234146.529300001</v>
+      </c>
+      <c r="K14" s="47" t="n">
+        <v>7592269.72113</v>
+      </c>
+      <c r="L14" s="47" t="n">
+        <v>9754992.139339998</v>
+      </c>
+      <c r="M14" s="47" t="n">
+        <v>11843168.96993</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7738051.603</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
+      </c>
+      <c r="C15" s="48" t="n">
+        <v>101172.05306</v>
+      </c>
+      <c r="D15" s="48" t="n">
+        <v>106753.1849</v>
+      </c>
+      <c r="E15" s="48" t="n">
+        <v>104847.78114</v>
+      </c>
+      <c r="F15" s="48" t="n">
+        <v>106768.03656</v>
+      </c>
+      <c r="G15" s="48" t="n">
+        <v>132291.72186</v>
+      </c>
+      <c r="H15" s="48" t="n">
+        <v>172972.36033</v>
+      </c>
+      <c r="I15" s="48" t="n">
+        <v>147302.83474</v>
+      </c>
+      <c r="J15" s="48" t="n">
+        <v>162347.32349</v>
+      </c>
+      <c r="K15" s="48" t="n">
+        <v>222564.70048</v>
+      </c>
+      <c r="L15" s="48" t="n">
+        <v>313323.2374700001</v>
+      </c>
+      <c r="M15" s="48" t="n">
+        <v>355139.48337</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>323494.233</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
+      </c>
+      <c r="C16" s="48" t="n">
+        <v>96737.23897999999</v>
+      </c>
+      <c r="D16" s="48" t="n">
+        <v>123771.81438</v>
+      </c>
+      <c r="E16" s="48" t="n">
+        <v>154189.14315</v>
+      </c>
+      <c r="F16" s="48" t="n">
+        <v>121875.91763</v>
+      </c>
+      <c r="G16" s="48" t="n">
+        <v>174700.36049</v>
+      </c>
+      <c r="H16" s="48" t="n">
+        <v>213188.15486</v>
+      </c>
+      <c r="I16" s="48" t="n">
+        <v>249689.20595</v>
+      </c>
+      <c r="J16" s="48" t="n">
+        <v>297861.35109</v>
+      </c>
+      <c r="K16" s="48" t="n">
+        <v>354153.03152</v>
+      </c>
+      <c r="L16" s="48" t="n">
+        <v>534378.89674</v>
+      </c>
+      <c r="M16" s="48" t="n">
+        <v>533239.35311</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>711937.099</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
+      </c>
+      <c r="C17" s="48" t="n">
+        <v>2312502.23443</v>
+      </c>
+      <c r="D17" s="48" t="n">
+        <v>2757148.84071</v>
+      </c>
+      <c r="E17" s="48" t="n">
+        <v>3421481.57696</v>
+      </c>
+      <c r="F17" s="48" t="n">
+        <v>3899394.80485</v>
+      </c>
+      <c r="G17" s="48" t="n">
+        <v>4622216.736179999</v>
+      </c>
+      <c r="H17" s="48" t="n">
+        <v>5029737.93577</v>
+      </c>
+      <c r="I17" s="48" t="n">
+        <v>5674713.755720001</v>
+      </c>
+      <c r="J17" s="48" t="n">
+        <v>5731067.10059</v>
+      </c>
+      <c r="K17" s="48" t="n">
+        <v>6925271.27295</v>
+      </c>
+      <c r="L17" s="48" t="n">
+        <v>8865470.222550001</v>
+      </c>
+      <c r="M17" s="48" t="n">
+        <v>10825429.32092</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6575398.443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
+      </c>
+      <c r="C18" s="48" t="n">
+        <v>15196.12745</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>11428.90992</v>
+      </c>
+      <c r="E18" s="48" t="n">
+        <v>15153.86303</v>
+      </c>
+      <c r="F18" s="48" t="n">
+        <v>2866.60816</v>
+      </c>
+      <c r="G18" s="48" t="n">
+        <v>32410.87047</v>
+      </c>
+      <c r="H18" s="48" t="n">
+        <v>26373.2835</v>
+      </c>
+      <c r="I18" s="48" t="n">
+        <v>23348.31931</v>
+      </c>
+      <c r="J18" s="48" t="n">
+        <v>42870.75413</v>
+      </c>
+      <c r="K18" s="48" t="n">
+        <v>90280.71618</v>
+      </c>
+      <c r="L18" s="48" t="n">
+        <v>41819.78258</v>
+      </c>
+      <c r="M18" s="48" t="n">
+        <v>129360.81253</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>127221.828</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
+      </c>
+      <c r="C19" s="46" t="n">
+        <v>1258726.7479</v>
+      </c>
+      <c r="D19" s="47" t="n">
+        <v>1380325.64089</v>
+      </c>
+      <c r="E19" s="47" t="n">
+        <v>1974128.36157</v>
+      </c>
+      <c r="F19" s="47" t="n">
+        <v>1796234.42359</v>
+      </c>
+      <c r="G19" s="47" t="n">
+        <v>2240929.10953</v>
+      </c>
+      <c r="H19" s="47" t="n">
+        <v>2467075.22286</v>
+      </c>
+      <c r="I19" s="47" t="n">
+        <v>2391208.17745</v>
+      </c>
+      <c r="J19" s="47" t="n">
+        <v>1411949.73635</v>
+      </c>
+      <c r="K19" s="47" t="n">
+        <v>3065800.094400001</v>
+      </c>
+      <c r="L19" s="47" t="n">
+        <v>6435155.42848</v>
+      </c>
+      <c r="M19" s="47" t="n">
+        <v>6656752.4224</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2408221.566</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
+      </c>
+      <c r="C20" s="46" t="n">
+        <v>915984.6842099999</v>
+      </c>
+      <c r="D20" s="47" t="n">
+        <v>1018012.17386</v>
+      </c>
+      <c r="E20" s="47" t="n">
+        <v>1244395.56423</v>
+      </c>
+      <c r="F20" s="47" t="n">
+        <v>1387909.48314</v>
+      </c>
+      <c r="G20" s="47" t="n">
+        <v>1630653.50434</v>
+      </c>
+      <c r="H20" s="47" t="n">
+        <v>1955857.72694</v>
+      </c>
+      <c r="I20" s="47" t="n">
+        <v>2114791.54203</v>
+      </c>
+      <c r="J20" s="47" t="n">
+        <v>2309471.207579999</v>
+      </c>
+      <c r="K20" s="47" t="n">
+        <v>2399159.22738</v>
+      </c>
+      <c r="L20" s="47" t="n">
+        <v>3217862.277070001</v>
+      </c>
+      <c r="M20" s="47" t="n">
+        <v>3790055.11499</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3327839.104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
+      </c>
+      <c r="C21" s="48" t="n">
+        <v>10.56133</v>
+      </c>
+      <c r="D21" s="48" t="n">
+        <v>1837.84453</v>
+      </c>
+      <c r="E21" s="48" t="n">
+        <v>93.73689999999999</v>
+      </c>
+      <c r="F21" s="48" t="n">
+        <v>1661.8714</v>
+      </c>
+      <c r="G21" s="48" t="n">
+        <v>754.19485</v>
+      </c>
+      <c r="H21" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="48" t="n">
-        <v>6459.96896</v>
-      </c>
-      <c r="D11" s="48" t="n">
-        <v>6936.629120000001</v>
-      </c>
-      <c r="E11" s="48" t="n">
-        <v>11791.36315</v>
-      </c>
-      <c r="F11" s="48" t="n">
-        <v>13126.67277</v>
-      </c>
-      <c r="G11" s="48" t="n">
-        <v>14226.06087</v>
-      </c>
-      <c r="H11" s="48" t="n">
-        <v>12572.55021</v>
-      </c>
-      <c r="I11" s="48" t="n">
-        <v>20939.69914</v>
-      </c>
-      <c r="J11" s="48" t="n">
-        <v>16367.99434</v>
-      </c>
-      <c r="K11" s="48" t="n">
-        <v>39233.50335</v>
-      </c>
-      <c r="L11" s="48" t="n">
-        <v>80529.10767999999</v>
-      </c>
-      <c r="M11" s="48" t="n">
-        <v>69465.90532999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="48" t="n">
-        <v>2883.56865</v>
-      </c>
-      <c r="D12" s="48" t="n">
-        <v>2982.60064</v>
-      </c>
-      <c r="E12" s="48" t="n">
-        <v>678.04284</v>
-      </c>
-      <c r="F12" s="48" t="n">
-        <v>2637.04888</v>
-      </c>
-      <c r="G12" s="48" t="n">
-        <v>3430.28326</v>
-      </c>
-      <c r="H12" s="48" t="n">
-        <v>3103.60658</v>
-      </c>
-      <c r="I12" s="48" t="n">
-        <v>4483.80963</v>
-      </c>
-      <c r="J12" s="48" t="n">
-        <v>4867.92267</v>
-      </c>
-      <c r="K12" s="48" t="n">
-        <v>4017.76876</v>
-      </c>
-      <c r="L12" s="48" t="n">
-        <v>13922.55146</v>
-      </c>
-      <c r="M12" s="48" t="n">
-        <v>17037.41514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="46" t="n">
-        <v>2495882.08737</v>
-      </c>
-      <c r="D13" s="47" t="n">
-        <v>3003634.34627</v>
-      </c>
-      <c r="E13" s="47" t="n">
-        <v>4099361.23835</v>
-      </c>
-      <c r="F13" s="47" t="n">
-        <v>4151349.68889</v>
-      </c>
-      <c r="G13" s="47" t="n">
-        <v>5380406.24441</v>
-      </c>
-      <c r="H13" s="47" t="n">
-        <v>5734199.533780001</v>
-      </c>
-      <c r="I13" s="47" t="n">
-        <v>6080216.64186</v>
-      </c>
-      <c r="J13" s="47" t="n">
-        <v>4921834.779650001</v>
-      </c>
-      <c r="K13" s="47" t="n">
-        <v>6598284.88875</v>
-      </c>
-      <c r="L13" s="47" t="n">
-        <v>14570812.83689</v>
-      </c>
-      <c r="M13" s="47" t="n">
-        <v>16768187.1812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="46" t="n">
-        <v>1724941.35981</v>
-      </c>
-      <c r="D14" s="47" t="n">
-        <v>2091576.83383</v>
-      </c>
-      <c r="E14" s="47" t="n">
-        <v>2741368.8022</v>
-      </c>
-      <c r="F14" s="47" t="n">
-        <v>3001963.06324</v>
-      </c>
-      <c r="G14" s="47" t="n">
-        <v>3870705.70129</v>
-      </c>
-      <c r="H14" s="47" t="n">
-        <v>4104258.07127</v>
-      </c>
-      <c r="I14" s="47" t="n">
-        <v>4475373.140759999</v>
-      </c>
-      <c r="J14" s="47" t="n">
-        <v>4072393.50511</v>
-      </c>
-      <c r="K14" s="47" t="n">
-        <v>4831281.73501</v>
-      </c>
-      <c r="L14" s="47" t="n">
-        <v>8952184.96215</v>
-      </c>
-      <c r="M14" s="47" t="n">
-        <v>10841840.78032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="48" t="n">
-        <v>67435.372</v>
-      </c>
-      <c r="D15" s="48" t="n">
-        <v>92978.36630999998</v>
-      </c>
-      <c r="E15" s="48" t="n">
-        <v>77441.67071999999</v>
-      </c>
-      <c r="F15" s="48" t="n">
-        <v>74012.54388</v>
-      </c>
-      <c r="G15" s="48" t="n">
-        <v>103671.77766</v>
-      </c>
-      <c r="H15" s="48" t="n">
-        <v>115548.09584</v>
-      </c>
-      <c r="I15" s="48" t="n">
-        <v>133795.96588</v>
-      </c>
-      <c r="J15" s="48" t="n">
-        <v>138723.85688</v>
-      </c>
-      <c r="K15" s="48" t="n">
-        <v>161018.87868</v>
-      </c>
-      <c r="L15" s="48" t="n">
-        <v>328514.6135399999</v>
-      </c>
-      <c r="M15" s="48" t="n">
-        <v>391586.73993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="48" t="n">
-        <v>87897.63104000001</v>
-      </c>
-      <c r="D16" s="48" t="n">
-        <v>110504.10519</v>
-      </c>
-      <c r="E16" s="48" t="n">
-        <v>137799.36451</v>
-      </c>
-      <c r="F16" s="48" t="n">
-        <v>106974.12888</v>
-      </c>
-      <c r="G16" s="48" t="n">
-        <v>127449.65485</v>
-      </c>
-      <c r="H16" s="48" t="n">
-        <v>188733.44345</v>
-      </c>
-      <c r="I16" s="48" t="n">
-        <v>228918.85375</v>
-      </c>
-      <c r="J16" s="48" t="n">
-        <v>287017.55621</v>
-      </c>
-      <c r="K16" s="48" t="n">
-        <v>324943.49992</v>
-      </c>
-      <c r="L16" s="48" t="n">
-        <v>488338.2126099999</v>
-      </c>
-      <c r="M16" s="48" t="n">
-        <v>516849.63341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="48" t="n">
-        <v>1566238.93065</v>
-      </c>
-      <c r="D17" s="48" t="n">
-        <v>1876493.81442</v>
-      </c>
-      <c r="E17" s="48" t="n">
-        <v>2515169.03171</v>
-      </c>
-      <c r="F17" s="48" t="n">
-        <v>2815050.38949</v>
-      </c>
-      <c r="G17" s="48" t="n">
-        <v>3606253.07472</v>
-      </c>
-      <c r="H17" s="48" t="n">
-        <v>3782154.96617</v>
-      </c>
-      <c r="I17" s="48" t="n">
-        <v>4081984.849770001</v>
-      </c>
-      <c r="J17" s="48" t="n">
-        <v>3610462.01024</v>
-      </c>
-      <c r="K17" s="48" t="n">
-        <v>4302423.6983</v>
-      </c>
-      <c r="L17" s="48" t="n">
-        <v>8107256.377890001</v>
-      </c>
-      <c r="M17" s="48" t="n">
-        <v>9812295.588270001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="48" t="n">
-        <v>3369.42612</v>
-      </c>
-      <c r="D18" s="48" t="n">
-        <v>11600.54791</v>
-      </c>
-      <c r="E18" s="48" t="n">
-        <v>10958.73526</v>
-      </c>
-      <c r="F18" s="48" t="n">
-        <v>5926.00099</v>
-      </c>
-      <c r="G18" s="48" t="n">
-        <v>33331.19406</v>
-      </c>
-      <c r="H18" s="48" t="n">
-        <v>17821.56581</v>
-      </c>
-      <c r="I18" s="48" t="n">
-        <v>30673.47136</v>
-      </c>
-      <c r="J18" s="48" t="n">
-        <v>36190.08178</v>
-      </c>
-      <c r="K18" s="48" t="n">
-        <v>42895.65811</v>
-      </c>
-      <c r="L18" s="48" t="n">
-        <v>28075.75811</v>
-      </c>
-      <c r="M18" s="48" t="n">
-        <v>121108.81871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="46" t="n">
-        <v>770940.72756</v>
-      </c>
-      <c r="D19" s="47" t="n">
-        <v>912057.5124400001</v>
-      </c>
-      <c r="E19" s="47" t="n">
-        <v>1357992.43615</v>
-      </c>
-      <c r="F19" s="47" t="n">
-        <v>1149386.62565</v>
-      </c>
-      <c r="G19" s="47" t="n">
-        <v>1509700.54312</v>
-      </c>
-      <c r="H19" s="47" t="n">
-        <v>1629941.46251</v>
-      </c>
-      <c r="I19" s="47" t="n">
-        <v>1604843.5011</v>
-      </c>
-      <c r="J19" s="47" t="n">
-        <v>849441.27454</v>
-      </c>
-      <c r="K19" s="47" t="n">
-        <v>1767003.15374</v>
-      </c>
-      <c r="L19" s="47" t="n">
-        <v>5618627.87474</v>
-      </c>
-      <c r="M19" s="47" t="n">
-        <v>5926346.40088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="46" t="n">
-        <v>571091.1194600001</v>
-      </c>
-      <c r="D20" s="47" t="n">
-        <v>674951.43973</v>
-      </c>
-      <c r="E20" s="47" t="n">
-        <v>869641.5979200001</v>
-      </c>
-      <c r="F20" s="47" t="n">
-        <v>891945.5420599999</v>
-      </c>
-      <c r="G20" s="47" t="n">
-        <v>1136077.26617</v>
-      </c>
-      <c r="H20" s="47" t="n">
-        <v>1230182.23189</v>
-      </c>
-      <c r="I20" s="47" t="n">
-        <v>1350406.57783</v>
-      </c>
-      <c r="J20" s="47" t="n">
-        <v>1322224.85044</v>
-      </c>
-      <c r="K20" s="47" t="n">
-        <v>1458133.03901</v>
-      </c>
-      <c r="L20" s="47" t="n">
-        <v>2866956.42576</v>
-      </c>
-      <c r="M20" s="47" t="n">
-        <v>3367040.70013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="48" t="n">
-        <v>13.22449</v>
-      </c>
-      <c r="D21" s="48" t="n">
-        <v>1843.10412</v>
-      </c>
-      <c r="E21" s="48" t="n">
-        <v>25.57055</v>
-      </c>
-      <c r="F21" s="48" t="n">
-        <v>1661.3714</v>
-      </c>
-      <c r="G21" s="48" t="n">
-        <v>750.30044</v>
-      </c>
-      <c r="H21" s="48" t="n">
-        <v>8.75</v>
-      </c>
       <c r="I21" s="48" t="n">
-        <v>260.4643</v>
+        <v>237.52334</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1.5924</v>
+        <v>0</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>3318.2374</v>
@@ -1606,779 +1592,879 @@
       <c r="M21" s="48" t="n">
         <v>8968.92022</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>7121.461</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>51768.37333</v>
+        <v>92084.27971</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>68646.49918000001</v>
+        <v>100056.60641</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>72602.37797</v>
+        <v>132784.92508</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>83991.78094000001</v>
+        <v>140030.52881</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>115472.70415</v>
+        <v>169352.83607</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>136261.86345</v>
+        <v>247211.42329</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>156426.02839</v>
+        <v>269146.66735</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>140690.91007</v>
+        <v>301514.89824</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>182316.72332</v>
+        <v>347301.92174</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>422822.394</v>
+        <v>489330.53738</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>474839.21602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>560546.00332</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>368007.089</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>519309.52164</v>
+        <v>823889.84317</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>604461.8364299999</v>
+        <v>916117.7229200001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>797013.6494</v>
+        <v>1111516.90225</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>806292.38972</v>
+        <v>1246217.08293</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1019854.26158</v>
+        <v>1460546.47342</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1093911.61844</v>
+        <v>1708638.30365</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1193720.08514</v>
+        <v>1845407.35134</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1181533.94037</v>
+        <v>2007956.30934</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1275814.72329</v>
+        <v>2051857.30564</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2440815.79436</v>
+        <v>2725213.50229</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2883232.56389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3220540.19145</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2952710.554</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>199849.6081</v>
+        <v>342742.06369</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>237106.07271</v>
+        <v>362313.46703</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>488350.83823</v>
+        <v>729732.7973399999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>257441.08359</v>
+        <v>408324.94045</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>373623.27695</v>
+        <v>610275.6051899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>399759.23062</v>
+        <v>511217.49592</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>254436.92327</v>
+        <v>276416.6354199999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-472783.5759</v>
+        <v>-897521.47123</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>308870.11473</v>
+        <v>666640.8670200001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2751671.44898</v>
+        <v>3217293.15141</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2559305.70075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2866697.30741</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-919617.5379999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>197305.40224</v>
+        <v>415751.04895</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>239058.11116</v>
+        <v>534926.16263</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>314726.97428</v>
+        <v>796605.9852800001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>289467.17144</v>
+        <v>691954.2604200001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>491775.93576</v>
+        <v>967030.46983</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>476927.79719</v>
+        <v>1234839.97037</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>764572.9457300002</v>
+        <v>1842449.93236</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>542986.57385</v>
+        <v>1472388.79054</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>619794.5403799999</v>
+        <v>1863573.47654</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4638608.90954</v>
+        <v>5766509.18187</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2304335.50089</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2900358.90728</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4548952.746</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2964.41377</v>
+        <v>2946.67356</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1636.24956</v>
+        <v>1461.33821</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2710.4181</v>
+        <v>2614.42929</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>951.72663</v>
+        <v>5884.48502</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>14104.31585</v>
+        <v>80973.43919</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>8024.743310000001</v>
+        <v>61695.28475</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>9010.617540000001</v>
+        <v>22080.84378</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>23120.3955</v>
+        <v>29761.49893</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>8676.33056</v>
+        <v>27029.52249</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>35291.8296</v>
+        <v>48147.66441</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>18187.49698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8722.933199999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>32379.622</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>49.63586</v>
+        <v>1218.59915</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>341.36382</v>
+        <v>9048.430880000002</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1585.29811</v>
+        <v>8095.704320000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>479.53537</v>
+        <v>9852.54744</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3787.06469</v>
+        <v>23877.45792</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>885.57876</v>
+        <v>15277.12593</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>979.60434</v>
+        <v>7378.33729</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>787.86033</v>
+        <v>3633.59811</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>6593.88766</v>
+        <v>11677.97505</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>28636.13709</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>34150.35722999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>47706.957</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>21659.6799</v>
+        <v>45889.94504</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>29089.50753</v>
+        <v>46406.61614</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>36618.54749</v>
+        <v>56587.05652000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>43158.07439</v>
+        <v>87277.03663000002</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>55876.31037000001</v>
+        <v>86580.0637</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>55207.44028</v>
+        <v>95852.38661</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>60864.31728</v>
+        <v>111868.76854</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>60716.75781</v>
+        <v>168780.56311</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>70173.53995999999</v>
+        <v>201095.24537</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>260769.90527</v>
+        <v>332350.56084</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>256075.09493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>397271.85772</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>360101.626</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1362.85662</v>
+        <v>742.66759</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1531.05792</v>
+        <v>3076.17496</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2219.56995</v>
+        <v>1659.5065</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>4910.19594</v>
+        <v>3661.8776</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1502.97681</v>
+        <v>1468.61725</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1586.45902</v>
+        <v>6231.02271</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1190.90263</v>
+        <v>2890.39111</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2290.28624</v>
+        <v>4077.06682</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1337.30122</v>
+        <v>1638.45884</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>29937.40851</v>
+        <v>17915.39438</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>17604.53219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>13741.31585</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3051.514</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>815.24386</v>
+        <v>1823.84869</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>521.97531</v>
+        <v>2096.75269</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>779.4498</v>
+        <v>2053.22193</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1261.12538</v>
+        <v>2851.26536</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1858.0825</v>
+        <v>8780.2855</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1196.7508</v>
+        <v>9076.213390000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2664.33905</v>
+        <v>7490.37768</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5715.55824</v>
+        <v>12206.25592</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6082.09665</v>
+        <v>18441.29376</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>15808.4772</v>
+        <v>46699.55714</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>17373.14906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>21462.71917</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>12532.023</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>773.51787</v>
+        <v>11156.6322</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3185.79724</v>
+        <v>28869.87087</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1593.14349</v>
+        <v>4519.07318</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2384.49984</v>
+        <v>4287.387549999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>11003.96652</v>
+        <v>55728.23499</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1438.45912</v>
+        <v>26959.42504</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1993.50138</v>
+        <v>4593.02211</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4839.93464</v>
+        <v>8088.85333</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3645.13664</v>
+        <v>51707.56835</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>23260.84301</v>
+        <v>394239.6463</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6475.86687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>250097.13007</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>24615.678</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>116882.18097</v>
+        <v>260896.21634</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>159003.84739</v>
+        <v>374277.90323</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>196281.81743</v>
+        <v>506778.15587</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>154507.63848</v>
+        <v>462535.35942</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>284469.85338</v>
+        <v>580026.11512</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>298580.52402</v>
+        <v>819018.40363</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>514755.01246</v>
+        <v>1440725.81226</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>304342.88319</v>
+        <v>1023763.83906</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>386382.57936</v>
+        <v>1310750.64032</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3874510.58132</v>
+        <v>4585521.28242</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1541258.86483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1824603.83178</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3774453.051</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>875.4223499999999</v>
+        <v>1277.43899</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1301.37595</v>
+        <v>1469.78163</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>288.66785</v>
+        <v>308.41167</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1464.15347</v>
+        <v>28.25827</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>3177.04935</v>
+        <v>147.12747</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1238.41531</v>
+        <v>193.3992</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>116.56721</v>
+        <v>219.99594</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>238.66481</v>
+        <v>220.06421</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>452.74039</v>
+        <v>577.50362</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>897.05975</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>7054.11377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>7051.76537</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2938.493</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>183.0509</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>24.91367</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>98.03117</v>
+        <v>0.00316</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>201.71613</v>
+        <v>89.66764999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>282.02728</v>
+        <v>51.39098000000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>270.60488</v>
+        <v>270.60478</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>542.15869</v>
+        <v>1530.63728</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>262.71672</v>
+        <v>95.30902999999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>776.78156</v>
+        <v>118.15603</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>441.39248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>347.39267</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>235.002</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>51789.03600000001</v>
+        <v>90834.57564</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>42713.75073</v>
+        <v>76049.12575000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>73795.96518</v>
+        <v>213037.69628</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>79042.74307000001</v>
+        <v>117243.2186</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>119021.81833</v>
+        <v>143422.64819</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>105597.33576</v>
+        <v>191665.77234</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>173092.10942</v>
+        <v>237303.59501</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>140200.33039</v>
+        <v>216581.67459</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>141994.23855</v>
+        <v>248604.33665</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>390762.13566</v>
+        <v>328941.88555</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>411228.85269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>342909.60422</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>290938.78</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>136656.06588</v>
+        <v>278966.55949</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>152809.4116</v>
+        <v>324295.84818</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>386158.88105</v>
+        <v>906118.23017</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>144902.57562</v>
+        <v>320521.66409</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>534034.5053</v>
+        <v>1272255.67476</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>327848.84222</v>
+        <v>843688.3405</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>819529.80803</v>
+        <v>2275346.43686</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>654980.7887099999</v>
+        <v>2090212.01972</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>754701.28917</v>
+        <v>2453433.86148</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6133603.64365</v>
+        <v>6869767.72282</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2321362.65228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2772350.77117</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>7828097.656</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5921.30559</v>
+        <v>7102.06663</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8104.98424</v>
+        <v>10048.48441</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>11313.27166</v>
+        <v>11725.35153</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>11893.12835</v>
+        <v>14775.24517</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>15518.98838</v>
+        <v>19195.69568</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>18683.4102</v>
+        <v>26622.84656</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>22927.2474</v>
+        <v>34316.86012999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>18997.02193</v>
+        <v>30960.8317</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>23187.06226</v>
+        <v>39499.45703</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>49508.40502000001</v>
+        <v>67284.88284999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>68685.96501999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>70856.89917</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>29358.585</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>9540.97748</v>
+        <v>12707.74116</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5010.544089999999</v>
+        <v>12006.23727</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>18734.14838</v>
+        <v>9701.74948</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3654.40368</v>
+        <v>6551.21389</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>17108.87036</v>
+        <v>27040.9249</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>25031.08952</v>
+        <v>28309.06302</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>33754.93757</v>
+        <v>50329.15161</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13796.77307</v>
+        <v>21836.10058</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7063.71854</v>
+        <v>23613.89344</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>20158.56477</v>
+        <v>18984.0486</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>118638.33775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>127354.04344</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>60641.3</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>104.43593</v>
+        <v>66.7487</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>277.93055</v>
+        <v>6649.652950000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>499.15323</v>
+        <v>340.38216</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>351.11931</v>
+        <v>3836.62153</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2385.86656</v>
+        <v>12378.51874</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>281.87094</v>
+        <v>3763.44299</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>445.69599</v>
+        <v>238.03074</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>240.94122</v>
+        <v>317.4648</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>186.87322</v>
+        <v>260.12812</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>7932.67663</v>
+        <v>4625.58367</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>7311.57764</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>845.65543</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>810.6420000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>111537.38936</v>
+        <v>246766.29534</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>131718.28137</v>
+        <v>282113.72078</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>304788.04837</v>
+        <v>846656.3447199999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>115307.29206</v>
+        <v>275485.33069</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>468612.79105</v>
+        <v>1177929.81942</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>266322.40107</v>
+        <v>754893.91833</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>728949.44658</v>
+        <v>2142186.71684</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>607210.1692800001</v>
+        <v>2012799.46833</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>701285.17211</v>
+        <v>2352024.91904</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6025197.90189</v>
+        <v>6710119.88608</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2068373.0159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2522476.12345</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7646908.809</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>530.63397</v>
+        <v>1284.39741</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>36.31808</v>
+        <v>55.62174</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5257.82666</v>
+        <v>5288.22218</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>179.79353</v>
+        <v>174.87002</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1419.75036</v>
+        <v>1301.75508</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1056.11022</v>
+        <v>738.95964</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>305.32746</v>
+        <v>618.5206899999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>340.76933</v>
+        <v>119.78667</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>720.8794</v>
+        <v>1046.65798</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>1672.27422</v>
@@ -2386,632 +2472,715 @@
       <c r="M41" s="48" t="n">
         <v>8336.053190000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1395.06</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>3.49109</v>
+        <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>7.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>4.59507</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>6.29461</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>108.63334</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>46.95474</v>
+        <v>46.95426999999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.00041</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9021.323549999999</v>
+        <v>11039.31025</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7657.86218</v>
+        <v>13422.13103</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>45566.43267999999</v>
+        <v>32406.1801</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13512.24362</v>
+        <v>19698.38279</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>28981.94398</v>
+        <v>34408.96094</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16473.95996</v>
+        <v>29360.10996</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>33038.51969</v>
+        <v>47657.15685</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14348.15914</v>
+        <v>24131.41337</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>22257.5832</v>
+        <v>36988.80587</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>29133.82071</v>
+        <v>67081.0474</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>50017.70277999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>42481.99649</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>88983.25999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>124715.68856</v>
+        <v>280103.07226</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>117004.40648</v>
+        <v>257042.99502</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>208217.45758</v>
+        <v>407293.25442</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>189909.48468</v>
+        <v>407745.04053</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>296813.49413</v>
+        <v>800517.6624400001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>374779.04285</v>
+        <v>683282.0291700001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>571297.4417299998</v>
+        <v>1118104.10345</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>630896.27711</v>
+        <v>1326523.12128</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>666871.1388000001</v>
+        <v>1619042.33538</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2589822.15057</v>
+        <v>3443156.42043</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1634417.76931</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2157934.95553</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3387209.663</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>103332.93495</v>
+        <v>196641.65586</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>98358.13215999998</v>
+        <v>162206.38667</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>166774.41331</v>
+        <v>273912.58877</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>158134.6807</v>
+        <v>302445.89963</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>218884.71925</v>
+        <v>418998.63434</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>252298.09534</v>
+        <v>456181.47998</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>339801.0434199999</v>
+        <v>579655.09513</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>397095.58132</v>
+        <v>687968.03484</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>457251.47368</v>
+        <v>972297.2606</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1365811.14026</v>
+        <v>2243150.53608</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1094464.30445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1511126.14822</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1847319.989</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>21382.75361</v>
+        <v>83461.4164</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>18646.27432</v>
+        <v>94836.60834999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>41443.04427</v>
+        <v>133380.66565</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>31774.80398</v>
+        <v>105299.1409</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>77928.77488</v>
+        <v>381519.0281</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>122480.94751</v>
+        <v>227100.54919</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>231496.39831</v>
+        <v>538449.00832</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>233800.69579</v>
+        <v>638555.08644</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>209619.66512</v>
+        <v>646745.0747800001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1224011.01031</v>
+        <v>1200005.88435</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>539953.4648600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>646808.8073099999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1539889.674</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>135783.2559</v>
+        <v>199423.48089</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>206350.36579</v>
+        <v>315900.78646</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>208701.47388</v>
+        <v>212927.29803</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>212096.19473</v>
+        <v>372012.49625</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>34551.21328</v>
+        <v>-495467.26218</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>174059.14274</v>
+        <v>219087.09662</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-371817.3807599999</v>
+        <v>-1274583.97253</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1215674.06787</v>
+        <v>-2841867.82169</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-492907.77286</v>
+        <v>-1542261.8533</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1333145.4357</v>
+        <v>-1329121.80997</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>907860.7800499999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>836770.4879899999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-7585972.111</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>70667.65954000001</v>
+        <v>112595.77357</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>61366.34126</v>
+        <v>118503.10667</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>65405.87375999999</v>
+        <v>164382.24322</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>78847.48407000001</v>
+        <v>117524.0379</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>125112.73449</v>
+        <v>605829.6746899999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>199268.29984</v>
+        <v>397615.92926</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>168335.87655</v>
+        <v>265836.14257</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>199249.22602</v>
+        <v>373299.88297</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>222643.68163</v>
+        <v>512781.75621</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>410378.5184</v>
+        <v>314050.47705</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>638039.20224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>875846.13902</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>529862.409</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3626.2681</v>
+        <v>2286.80636</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>266.38295</v>
+        <v>551.6183000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1682.23936</v>
+        <v>2834.44918</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1598.27803</v>
+        <v>3485.33051</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1023.11975</v>
+        <v>1282.80443</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1767.59932</v>
+        <v>2714.63687</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3113.73459</v>
+        <v>3136.31811</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1740.61802</v>
+        <v>4024.63342</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2029.76237</v>
+        <v>8934.392330000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>10294.37896</v>
+        <v>1766.02957</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4865.8725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4474.41099</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>23463.736</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>67041.39144000001</v>
+        <v>110308.96721</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>61099.95831</v>
+        <v>117951.48837</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>63723.6344</v>
+        <v>161547.79404</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>77249.20604</v>
+        <v>114038.70739</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>124089.61474</v>
+        <v>604546.87026</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>197500.70052</v>
+        <v>394901.29239</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>165222.14196</v>
+        <v>262699.82446</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>197508.608</v>
+        <v>369275.2495499999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>220613.91926</v>
+        <v>503847.36388</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>400084.13944</v>
+        <v>312284.44748</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>633173.32974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>871371.72803</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>506398.673</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>54030.09468000001</v>
+        <v>78834.44121999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>44067.97979999999</v>
+        <v>113974.32068</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>366554.67276</v>
+        <v>467435.3888300001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>71331.13019</v>
+        <v>250233.03556</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>107439.42451</v>
+        <v>206035.93388</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>320253.56218</v>
+        <v>422443.88343</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>129821.29161</v>
+        <v>235773.26184</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>266795.91558</v>
+        <v>385238.68747</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>143746.69687</v>
+        <v>262630.53609</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>553215.56352</v>
+        <v>514208.59659</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>421732.25742</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>349106.59312</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>557370.66</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4017.86002</v>
+        <v>5748.71637</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3436.35694</v>
+        <v>6087.03647</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5374.486690000001</v>
+        <v>6463.83591</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9710.97532</v>
+        <v>12596.39363</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>10595.12668</v>
+        <v>23566.10669</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>8276.50324</v>
+        <v>11306.8131</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9189.399950000001</v>
+        <v>12654.62473</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>14677.9587</v>
+        <v>20251.84093</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8896.378060000001</v>
+        <v>21563.51605</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>23131.54387</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>31842.32476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>36756.86852</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>102681.076</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2039.50842</v>
+        <v>5234.3134</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3793.00356</v>
+        <v>5527.58316</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4007.95597</v>
+        <v>5462.18669</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5950.421020000001</v>
+        <v>10810.06494</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5655.503819999999</v>
+        <v>29342.58749</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8888.245579999999</v>
+        <v>13125.13963</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13007.56116</v>
+        <v>20867.58265</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11924.76268</v>
+        <v>23595.5098</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4545.802709999999</v>
+        <v>10986.01692</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>26102.40748</v>
+        <v>11049.70145</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>70830.38992999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15669.57528</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>44786.88</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>47972.72624</v>
+        <v>67851.41145</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>36838.6193</v>
+        <v>102359.70105</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>357172.2301</v>
+        <v>455509.36623</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>55669.73385</v>
+        <v>226826.57699</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>91188.79400999998</v>
+        <v>153127.2397</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>303088.81336</v>
+        <v>398011.9307</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>107624.3305</v>
+        <v>202251.05446</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>240193.1942</v>
+        <v>341391.33674</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>130304.5161</v>
+        <v>230081.00312</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>503981.61217</v>
+        <v>480027.35127</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>319059.54273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>296680.14932</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>409902.704</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>152420.82076</v>
+        <v>233184.81324</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>223648.72725</v>
+        <v>320429.57245</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-92447.32512000001</v>
+        <v>-90125.84758</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>219612.54861</v>
+        <v>239303.49859</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>52224.52325999999</v>
+        <v>-95673.52137</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>53073.88040000002</v>
+        <v>194259.14245</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-333302.79582</v>
+        <v>-1244521.0918</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1283220.75743</v>
+        <v>-2853806.626190001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-414010.7881</v>
+        <v>-1292110.63318</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1475982.48082</v>
+        <v>-1529279.92951</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1124167.72487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1363510.03389</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-7613480.362</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>37076.82695</v>
+        <v>52793.28338</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>47165.78437</v>
+        <v>68411.42305</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>70156.57719</v>
+        <v>88496.35899000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>62595.24298</v>
+        <v>85609.03344</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>76079.59302</v>
+        <v>88419.77435000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>84791.88003000001</v>
+        <v>105245.60441</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>64880.05176</v>
+        <v>73397.36666000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>32664.04078</v>
+        <v>34624.71849</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>52706.23964</v>
+        <v>67265.29244</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>217067.38747</v>
+        <v>211757.70438</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>288854.98318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>305976.3382</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>62484.189</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>115343.99381</v>
+        <v>180391.52986</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>176482.94288</v>
+        <v>252018.1494</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-162603.90231</v>
+        <v>-178622.20657</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>157017.30563</v>
+        <v>153694.46515</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-23855.06976</v>
+        <v>-184093.29572</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-31717.99963</v>
+        <v>89013.53803999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-398182.84758</v>
+        <v>-1317918.45846</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1315884.79821</v>
+        <v>-2888431.34468</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-466717.02774</v>
+        <v>-1359375.92562</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1693049.86829</v>
+        <v>-1741037.63389</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>835312.7416900001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1057533.69569</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-7675964.551</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>654</v>
+        <v>496</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>766</v>
+        <v>561</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>873</v>
+        <v>638</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>974</v>
+        <v>702</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>955</v>
+        <v>724</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1036</v>
+        <v>763</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1123</v>
+        <v>802</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1134</v>
+        <v>751</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1204</v>
+        <v>788</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>943</v>
+        <v>758</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>785</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>